--- a/data/trans_orig/P1422-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P1422-Clase-trans_orig.xlsx
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11211</v>
+        <v>12344</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006763663296232764</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02564290979612616</v>
+        <v>0.02823276837337928</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5557</v>
+        <v>6986</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003496745605507802</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01767089074671779</v>
+        <v>0.02221720886048083</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -785,19 +785,19 @@
         <v>4057</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>953</v>
+        <v>1090</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12713</v>
+        <v>11958</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.005396969197045362</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001268066727435304</v>
+        <v>0.001450353016933957</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01691314998151505</v>
+        <v>0.01590826513061545</v>
       </c>
     </row>
     <row r="5">
@@ -814,7 +814,7 @@
         <v>434254</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>426000</v>
+        <v>424867</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>437211</v>
@@ -823,7 +823,7 @@
         <v>0.9932363367037672</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9743570902038743</v>
+        <v>0.971767231626621</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>313354</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>308897</v>
+        <v>307468</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>314454</v>
@@ -844,7 +844,7 @@
         <v>0.9965032543944922</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9823291092532822</v>
+        <v>0.9777827911395185</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -856,19 +856,19 @@
         <v>747608</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>738952</v>
+        <v>739707</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>750712</v>
+        <v>750575</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9946030308029546</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9830868500184844</v>
+        <v>0.9840917348693846</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9987319332725647</v>
+        <v>0.998549646983066</v>
       </c>
     </row>
     <row r="6">
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5223</v>
+        <v>5185</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002458392281052098</v>
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01247180169141032</v>
+        <v>0.0123815329376978</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -997,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>5768</v>
+        <v>4904</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.001360407305019411</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.007621377159264802</v>
+        <v>0.006479762494880975</v>
       </c>
     </row>
     <row r="8">
@@ -1023,7 +1023,7 @@
         <v>417767</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>413574</v>
+        <v>413612</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>418797</v>
@@ -1032,7 +1032,7 @@
         <v>0.997541607718948</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9875281983085897</v>
+        <v>0.9876184670623023</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1057,7 +1057,7 @@
         <v>755778</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>751040</v>
+        <v>751904</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>756808</v>
@@ -1066,7 +1066,7 @@
         <v>0.9986395926949806</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9923786228407371</v>
+        <v>0.9935202375051192</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -1161,19 +1161,19 @@
         <v>8356</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3216</v>
+        <v>3886</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17742</v>
+        <v>18143</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01327632537194063</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005110157510334183</v>
+        <v>0.006173729411550235</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02818788445153785</v>
+        <v>0.02882486850552523</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1182,19 +1182,19 @@
         <v>3290</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1040</v>
+        <v>1053</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8839</v>
+        <v>9424</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01264610096452241</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003999756418483249</v>
+        <v>0.004049200451081882</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03397836449260525</v>
+        <v>0.03622978018763494</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -1203,19 +1203,19 @@
         <v>11646</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5635</v>
+        <v>6123</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>21728</v>
+        <v>21212</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0130920288448997</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006334639968323613</v>
+        <v>0.006882936214006539</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02442635719672633</v>
+        <v>0.02384543936102595</v>
       </c>
     </row>
     <row r="11">
@@ -1232,19 +1232,19 @@
         <v>621059</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>611673</v>
+        <v>611272</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>626199</v>
+        <v>625529</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9867236746280593</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.971812115548462</v>
+        <v>0.9711751314944745</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9948898424896658</v>
+        <v>0.9938262705884497</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>241</v>
@@ -1253,19 +1253,19 @@
         <v>256839</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>251290</v>
+        <v>250705</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>259089</v>
+        <v>259076</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9873538990354775</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9660216355073947</v>
+        <v>0.9637702198123651</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9960002435815168</v>
+        <v>0.9959507995489181</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>825</v>
@@ -1274,19 +1274,19 @@
         <v>877898</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>867816</v>
+        <v>868332</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>883909</v>
+        <v>883421</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9869079711551003</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9755736428032753</v>
+        <v>0.9761545606389741</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9936653600316766</v>
+        <v>0.9931170637859935</v>
       </c>
     </row>
     <row r="12">
@@ -1378,19 +1378,19 @@
         <v>15949</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8936</v>
+        <v>8168</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>26031</v>
+        <v>24955</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01376104269451185</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007710236457040733</v>
+        <v>0.007046997308655763</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02245933210990989</v>
+        <v>0.02153098969798032</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -1399,19 +1399,19 @@
         <v>5101</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2011</v>
+        <v>1958</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11339</v>
+        <v>11345</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.006670223361067924</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.002629903744729638</v>
+        <v>0.002560568534946411</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01482708658062074</v>
+        <v>0.01483531631164762</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>20</v>
@@ -1420,19 +1420,19 @@
         <v>21050</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>12913</v>
+        <v>12857</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>31769</v>
+        <v>31938</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01094229845980326</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.006712551573923997</v>
+        <v>0.00668324081726876</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01651445932276656</v>
+        <v>0.0166022983373182</v>
       </c>
     </row>
     <row r="14">
@@ -1449,19 +1449,19 @@
         <v>1143060</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1132978</v>
+        <v>1134054</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1150073</v>
+        <v>1150841</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9862389573054882</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9775406678900901</v>
+        <v>0.9784690103020196</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9922897635429593</v>
+        <v>0.9929530026913442</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>705</v>
@@ -1470,19 +1470,19 @@
         <v>759621</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>753383</v>
+        <v>753377</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>762711</v>
+        <v>762764</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9933297766389321</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9851729134193793</v>
+        <v>0.9851646836883523</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9973700962552704</v>
+        <v>0.9974394314650535</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1773</v>
@@ -1491,19 +1491,19 @@
         <v>1902681</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1891962</v>
+        <v>1891793</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1910818</v>
+        <v>1910874</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9890577015401968</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9834855406772337</v>
+        <v>0.983397701662682</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9932874484260762</v>
+        <v>0.9933167591827315</v>
       </c>
     </row>
     <row r="15">
@@ -1595,19 +1595,19 @@
         <v>5330</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2059</v>
+        <v>1958</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12019</v>
+        <v>11785</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01043859262402717</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004032688344378531</v>
+        <v>0.003835247340487776</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02353964851379444</v>
+        <v>0.02308010930023822</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -1616,19 +1616,19 @@
         <v>5560</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2101</v>
+        <v>2023</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13276</v>
+        <v>12258</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.007312936293783767</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002763845797235633</v>
+        <v>0.002661365201169955</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01746212909446222</v>
+        <v>0.01612354176802685</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>10</v>
@@ -1637,19 +1637,19 @@
         <v>10890</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5343</v>
+        <v>5578</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>19499</v>
+        <v>20252</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.008568755479141132</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004204258343227574</v>
+        <v>0.004389377505973712</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01534332258750614</v>
+        <v>0.0159358830541631</v>
       </c>
     </row>
     <row r="17">
@@ -1666,19 +1666,19 @@
         <v>505266</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>498577</v>
+        <v>498811</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>508537</v>
+        <v>508638</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9895614073759729</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9764603514862057</v>
+        <v>0.9769198906997617</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9959673116556215</v>
+        <v>0.9961647526595122</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>697</v>
@@ -1687,19 +1687,19 @@
         <v>754686</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>746970</v>
+        <v>747988</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>758145</v>
+        <v>758223</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9926870637062163</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9825378709055377</v>
+        <v>0.9838764582319732</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9972361542027643</v>
+        <v>0.99733863479883</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1179</v>
@@ -1708,19 +1708,19 @@
         <v>1259953</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1251344</v>
+        <v>1250591</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1265500</v>
+        <v>1265265</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9914312445208588</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.984656677412494</v>
+        <v>0.9840641169458371</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9957957416567725</v>
+        <v>0.9956106224940264</v>
       </c>
     </row>
     <row r="18">
@@ -1825,19 +1825,19 @@
         <v>10329</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5087</v>
+        <v>5142</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17787</v>
+        <v>19617</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.009311046216559661</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.004585180761997256</v>
+        <v>0.004635129868978767</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01603395428609861</v>
+        <v>0.01768335728204382</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>10</v>
@@ -1846,19 +1846,19 @@
         <v>10329</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>5185</v>
+        <v>5134</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>19032</v>
+        <v>18726</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.007505429274671252</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.003767834489378077</v>
+        <v>0.003730830523669828</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01382880659336374</v>
+        <v>0.01360662083338326</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>1099022</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1091564</v>
+        <v>1089734</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1104264</v>
+        <v>1104209</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9906889537834404</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9839660457139002</v>
+        <v>0.9823166427179565</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9954148192380027</v>
+        <v>0.9953648701310213</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1299</v>
@@ -1909,19 +1909,19 @@
         <v>1365904</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1357201</v>
+        <v>1357507</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1371048</v>
+        <v>1371099</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9924945707253288</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9861711934066366</v>
+        <v>0.9863933791666173</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.996232165510622</v>
+        <v>0.9962691694763302</v>
       </c>
     </row>
     <row r="21">
@@ -2013,19 +2013,19 @@
         <v>33622</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>22755</v>
+        <v>23495</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>49068</v>
+        <v>48890</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.009825539647544726</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006649770757615722</v>
+        <v>0.006866140921439828</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01433946165015787</v>
+        <v>0.01428737142607446</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>24</v>
@@ -2034,19 +2034,19 @@
         <v>25379</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>17043</v>
+        <v>16995</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>38319</v>
+        <v>36465</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.007155208218636882</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.004804964626365753</v>
+        <v>0.004791413920744744</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01080345875390369</v>
+        <v>0.01028081830851348</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>54</v>
@@ -2055,19 +2055,19 @@
         <v>59001</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>42937</v>
+        <v>44428</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>74180</v>
+        <v>77313</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.008466424136806861</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.006161358352288164</v>
+        <v>0.006375317243467024</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01064456183130414</v>
+        <v>0.01109406533064141</v>
       </c>
     </row>
     <row r="23">
@@ -2084,19 +2084,19 @@
         <v>3388288</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3372842</v>
+        <v>3373020</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3399155</v>
+        <v>3398415</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9901744603524553</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9856605383498422</v>
+        <v>0.9857126285739256</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9933502292423843</v>
+        <v>0.9931338590785602</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3264</v>
@@ -2105,19 +2105,19 @@
         <v>3521536</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3508596</v>
+        <v>3510450</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3529872</v>
+        <v>3529920</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9928447917813631</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9891965412460965</v>
+        <v>0.9897191816914866</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9951950353736342</v>
+        <v>0.9952085860792553</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6439</v>
@@ -2126,19 +2126,19 @@
         <v>6909824</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6894645</v>
+        <v>6891512</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6925888</v>
+        <v>6924397</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9915335758631931</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9893554381686961</v>
+        <v>0.9889059346693585</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9938386416477123</v>
+        <v>0.9936246827565329</v>
       </c>
     </row>
     <row r="24">
@@ -2472,19 +2472,19 @@
         <v>7490</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3537</v>
+        <v>3187</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15436</v>
+        <v>16876</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01745473400422815</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008242005940690321</v>
+        <v>0.007428399188540856</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03597447605843655</v>
+        <v>0.03933022199910421</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -2493,19 +2493,19 @@
         <v>4520</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1200</v>
+        <v>1208</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13341</v>
+        <v>12948</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01302243715748383</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0034589026036706</v>
+        <v>0.003481376327358357</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03844038707729307</v>
+        <v>0.03730722887301809</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -2514,19 +2514,19 @@
         <v>12009</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5403</v>
+        <v>5792</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20659</v>
+        <v>21377</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01547282782869645</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006961044869071454</v>
+        <v>0.007462170605878261</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02661770535224824</v>
+        <v>0.02754281635356494</v>
       </c>
     </row>
     <row r="5">
@@ -2543,19 +2543,19 @@
         <v>421602</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>413656</v>
+        <v>412216</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>425555</v>
+        <v>425905</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9825452659957719</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9640255239415635</v>
+        <v>0.9606697780008958</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9917579940593096</v>
+        <v>0.9925716008114591</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>329</v>
@@ -2564,19 +2564,19 @@
         <v>342535</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>333714</v>
+        <v>334107</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>345855</v>
+        <v>345847</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9869775628425161</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9615596129227073</v>
+        <v>0.9626927711269833</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9965410973963293</v>
+        <v>0.9965186236726417</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>718</v>
@@ -2585,19 +2585,19 @@
         <v>764138</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>755488</v>
+        <v>754770</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>770744</v>
+        <v>770355</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9845271721713036</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9733822946477517</v>
+        <v>0.972457183646435</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9930389551309284</v>
+        <v>0.9925378293941215</v>
       </c>
     </row>
     <row r="6">
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7379</v>
+        <v>7495</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005680647527218177</v>
@@ -2701,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01956005483577554</v>
+        <v>0.01986749650319006</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>7570</v>
+        <v>6499</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.002859096521875254</v>
@@ -2735,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01009946501675546</v>
+        <v>0.008670908505132057</v>
       </c>
     </row>
     <row r="8">
@@ -2752,7 +2752,7 @@
         <v>375084</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>369848</v>
+        <v>369732</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>377227</v>
@@ -2761,7 +2761,7 @@
         <v>0.9943193524727818</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9804399451642244</v>
+        <v>0.9801325034968099</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -2786,7 +2786,7 @@
         <v>747357</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>741930</v>
+        <v>743001</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>749500</v>
@@ -2795,7 +2795,7 @@
         <v>0.9971409034781248</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9899005349832446</v>
+        <v>0.9913290914948679</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -2890,19 +2890,19 @@
         <v>2849</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7481</v>
+        <v>7899</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005457842036114336</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001491916897572904</v>
+        <v>0.001495716037100243</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01433442508461393</v>
+        <v>0.01513472760325083</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -2914,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7494</v>
+        <v>8609</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01479796666858554</v>
@@ -2923,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04511332162824401</v>
+        <v>0.05182410810291677</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -2932,19 +2932,19 @@
         <v>5307</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1740</v>
+        <v>1970</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11990</v>
+        <v>12003</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.007712966155930016</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002528929864770953</v>
+        <v>0.002862786078432509</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01742604205540241</v>
+        <v>0.01744545559991414</v>
       </c>
     </row>
     <row r="11">
@@ -2961,19 +2961,19 @@
         <v>519065</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>514433</v>
+        <v>514015</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>521135</v>
+        <v>521133</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9945421579638857</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9856655749153861</v>
+        <v>0.984865272396749</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9985080831024271</v>
+        <v>0.9985042839628997</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>151</v>
@@ -2982,7 +2982,7 @@
         <v>163665</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>158629</v>
+        <v>157514</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>166123</v>
@@ -2991,7 +2991,7 @@
         <v>0.9852020333314144</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.954886678371756</v>
+        <v>0.9481758918970833</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -3003,19 +3003,19 @@
         <v>682729</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>676046</v>
+        <v>676033</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>686296</v>
+        <v>686066</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.99228703384407</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9825739579445972</v>
+        <v>0.9825545444000855</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.997471070135229</v>
+        <v>0.9971372139215675</v>
       </c>
     </row>
     <row r="12">
@@ -3107,19 +3107,19 @@
         <v>4789</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1884</v>
+        <v>1816</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12081</v>
+        <v>10514</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.004165233065103781</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00163910514149366</v>
+        <v>0.001580007752170775</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01050835821428047</v>
+        <v>0.009145206700709863</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8502</v>
+        <v>8491</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.002872958440357091</v>
@@ -3140,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01029486197638738</v>
+        <v>0.01028153744341971</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -3149,19 +3149,19 @@
         <v>7161</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3323</v>
+        <v>2968</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>13982</v>
+        <v>15639</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.003624989720273479</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.001681891697740403</v>
+        <v>0.00150238410162675</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.007077821213256816</v>
+        <v>0.007916312176950154</v>
       </c>
     </row>
     <row r="14">
@@ -3178,19 +3178,19 @@
         <v>1144849</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1137557</v>
+        <v>1139124</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1147754</v>
+        <v>1147822</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9958347669348963</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9894916417857186</v>
+        <v>0.9908547932992903</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9983608948585062</v>
+        <v>0.9984199922478293</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>796</v>
@@ -3199,7 +3199,7 @@
         <v>823503</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>817374</v>
+        <v>817385</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>825876</v>
@@ -3208,7 +3208,7 @@
         <v>0.9971270415596429</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9897051380236125</v>
+        <v>0.9897184625565812</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -3220,19 +3220,19 @@
         <v>1968353</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1961532</v>
+        <v>1959875</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1972191</v>
+        <v>1972546</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9963750102797265</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9929221787867433</v>
+        <v>0.9920836878230499</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9983181083022596</v>
+        <v>0.9984976158983733</v>
       </c>
     </row>
     <row r="15">
@@ -3324,19 +3324,19 @@
         <v>3350</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>805</v>
+        <v>964</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8111</v>
+        <v>8359</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005397646717404706</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001296530800756422</v>
+        <v>0.001552962039820628</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01306713244238502</v>
+        <v>0.01346679043542139</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -3348,16 +3348,16 @@
         <v>2169</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12849</v>
+        <v>13247</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.008647493443616809</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002937379614574568</v>
+        <v>0.002938088672538717</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01740422686985016</v>
+        <v>0.01794411564435689</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>10</v>
@@ -3366,19 +3366,19 @@
         <v>9734</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4814</v>
+        <v>4714</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>16979</v>
+        <v>17934</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.007163112885707685</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003542521323569742</v>
+        <v>0.00346897135898169</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01249419327431873</v>
+        <v>0.01319699686678317</v>
       </c>
     </row>
     <row r="17">
@@ -3395,19 +3395,19 @@
         <v>617356</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>612595</v>
+        <v>612347</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>619901</v>
+        <v>619742</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9946023532825953</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9869328675576156</v>
+        <v>0.9865332095645787</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9987034691992436</v>
+        <v>0.9984470379601794</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>693</v>
@@ -3416,7 +3416,7 @@
         <v>731860</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>725395</v>
+        <v>724997</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>736075</v>
@@ -3425,10 +3425,10 @@
         <v>0.9913525065563832</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9825957731301498</v>
+        <v>0.9820558843556445</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9970626203854255</v>
+        <v>0.9970619113274612</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1286</v>
@@ -3437,19 +3437,19 @@
         <v>1349216</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1341971</v>
+        <v>1341016</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1354136</v>
+        <v>1354236</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9928368871142923</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9875058067256812</v>
+        <v>0.9868030031332167</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9964574786764302</v>
+        <v>0.9965310286410183</v>
       </c>
     </row>
     <row r="18">
@@ -3544,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4913</v>
+        <v>4790</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003302066889124267</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01710830093949458</v>
+        <v>0.01668231471903091</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -3562,19 +3562,19 @@
         <v>5065</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1190</v>
+        <v>1111</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12037</v>
+        <v>12812</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.004681361194272818</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.001099589828519354</v>
+        <v>0.001026848565317882</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0111243209949245</v>
+        <v>0.01184118118968566</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>5</v>
@@ -3583,19 +3583,19 @@
         <v>6014</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2021</v>
+        <v>1958</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>14444</v>
+        <v>13520</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.004392092756660797</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.001476133162656803</v>
+        <v>0.001430376995381817</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0105497248066287</v>
+        <v>0.009874805913595786</v>
       </c>
     </row>
     <row r="20">
@@ -3612,7 +3612,7 @@
         <v>286197</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>282232</v>
+        <v>282355</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>287145</v>
@@ -3621,7 +3621,7 @@
         <v>0.9966979331108757</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9828916990605063</v>
+        <v>0.9833176852809691</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -3633,19 +3633,19 @@
         <v>1076960</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1069988</v>
+        <v>1069213</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1080835</v>
+        <v>1080914</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9953186388057271</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9888756790050754</v>
+        <v>0.9881588188103144</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9989004101714807</v>
+        <v>0.9989731514346823</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1259</v>
@@ -3654,19 +3654,19 @@
         <v>1363156</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1354726</v>
+        <v>1355650</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1367149</v>
+        <v>1367212</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9956079072433393</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9894502751933713</v>
+        <v>0.9901251940864038</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9985238668373432</v>
+        <v>0.9985696230046182</v>
       </c>
     </row>
     <row r="21">
@@ -3758,19 +3758,19 @@
         <v>21568</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>14153</v>
+        <v>13817</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>32499</v>
+        <v>31487</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.006370321991674567</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004180287299158546</v>
+        <v>0.004080824788931623</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.009598728064571339</v>
+        <v>0.0093000414876889</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>17</v>
@@ -3779,19 +3779,19 @@
         <v>20800</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12662</v>
+        <v>12247</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>33847</v>
+        <v>33480</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.005889631616777201</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.003585343343742901</v>
+        <v>0.003467958631502953</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.009584044488592427</v>
+        <v>0.009480086113727073</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>39</v>
@@ -3800,19 +3800,19 @@
         <v>42368</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>30565</v>
+        <v>31200</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>56401</v>
+        <v>57496</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.006124908359880025</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.004418591854358096</v>
+        <v>0.004510396495252129</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.008153551846228247</v>
+        <v>0.008311899868541962</v>
       </c>
     </row>
     <row r="23">
@@ -3829,19 +3829,19 @@
         <v>3364154</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3353223</v>
+        <v>3354235</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3371569</v>
+        <v>3371905</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9936296780083255</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9904012719354284</v>
+        <v>0.9906999585123112</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9958197127008414</v>
+        <v>0.9959191752110684</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3309</v>
@@ -3850,19 +3850,19 @@
         <v>3510796</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3497749</v>
+        <v>3498116</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3518934</v>
+        <v>3519349</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9941103683832228</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9904159555114075</v>
+        <v>0.9905199138862729</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9964146566562571</v>
+        <v>0.9965320413684969</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6511</v>
@@ -3871,19 +3871,19 @@
         <v>6874950</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6860917</v>
+        <v>6859822</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6886753</v>
+        <v>6886118</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.99387509164012</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9918464481537718</v>
+        <v>0.991688100131458</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9955814081456419</v>
+        <v>0.9954896035047479</v>
       </c>
     </row>
     <row r="24">
@@ -4217,19 +4217,19 @@
         <v>6482</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2646</v>
+        <v>2831</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12916</v>
+        <v>13211</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.01177279894470364</v>
+        <v>0.01177279894470365</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004804937806092717</v>
+        <v>0.005141889446263477</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02345735188847123</v>
+        <v>0.02399278916411022</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -4238,19 +4238,19 @@
         <v>2577</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6680</v>
+        <v>6440</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.005275292202306847</v>
+        <v>0.005275292202306846</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001325479378564465</v>
+        <v>0.001326672131542295</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01367653554794259</v>
+        <v>0.01318473415283914</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -4259,19 +4259,19 @@
         <v>9059</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4546</v>
+        <v>4465</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16048</v>
+        <v>17159</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.008718550642334509</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004375254561943408</v>
+        <v>0.004297051598048131</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01544530105792144</v>
+        <v>0.0165148332358364</v>
       </c>
     </row>
     <row r="5">
@@ -4288,19 +4288,19 @@
         <v>544136</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>537702</v>
+        <v>537407</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>547972</v>
+        <v>547787</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9882272010552964</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9765426481115292</v>
+        <v>0.9760072108358897</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9951950621939073</v>
+        <v>0.9948581105537366</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>682</v>
@@ -4309,19 +4309,19 @@
         <v>485834</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>481731</v>
+        <v>481971</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>487764</v>
+        <v>487763</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9947247077976932</v>
+        <v>0.9947247077976931</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9863234644520575</v>
+        <v>0.9868152658471611</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9986745206214354</v>
+        <v>0.9986733278684579</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1229</v>
@@ -4330,19 +4330,19 @@
         <v>1029970</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1022981</v>
+        <v>1021870</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1034483</v>
+        <v>1034564</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9912814493576655</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9845546989420787</v>
+        <v>0.9834851667641636</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9956247454380566</v>
+        <v>0.9957029484019519</v>
       </c>
     </row>
     <row r="6">
@@ -4434,19 +4434,19 @@
         <v>7026</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3353</v>
+        <v>3371</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12893</v>
+        <v>13317</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.01456899299138301</v>
+        <v>0.014568992991383</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006952294152669907</v>
+        <v>0.006990400206863245</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02673186091802919</v>
+        <v>0.02761146684523608</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -4455,19 +4455,19 @@
         <v>3075</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1183</v>
+        <v>1242</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6795</v>
+        <v>6611</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.007277433502885568</v>
+        <v>0.007277433502885569</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002800558023564249</v>
+        <v>0.002939308900010238</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01608243748884738</v>
+        <v>0.01564854252366575</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>15</v>
@@ -4476,19 +4476,19 @@
         <v>10101</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5247</v>
+        <v>5731</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>16227</v>
+        <v>16146</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01116416793619487</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.005799376748830519</v>
+        <v>0.006333677268495778</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01793451012577347</v>
+        <v>0.01784570080145454</v>
       </c>
     </row>
     <row r="8">
@@ -4505,19 +4505,19 @@
         <v>475264</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>469397</v>
+        <v>468973</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>478937</v>
+        <v>478919</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9854310070086171</v>
+        <v>0.9854310070086172</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9732681390819707</v>
+        <v>0.9723885331547639</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9930477058473299</v>
+        <v>0.9930095997931366</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>583</v>
@@ -4526,19 +4526,19 @@
         <v>419417</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>415697</v>
+        <v>415881</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>421309</v>
+        <v>421250</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9927225664971143</v>
+        <v>0.9927225664971145</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9839175625111521</v>
+        <v>0.9843514574763356</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9971994419764357</v>
+        <v>0.9970606910999897</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1054</v>
@@ -4547,19 +4547,19 @@
         <v>894681</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>888555</v>
+        <v>888636</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>899535</v>
+        <v>899051</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9888358320638052</v>
+        <v>0.9888358320638051</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9820654898742266</v>
+        <v>0.9821542991985452</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9942006232511694</v>
+        <v>0.9936663227315039</v>
       </c>
     </row>
     <row r="9">
@@ -4651,19 +4651,19 @@
         <v>12099</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6727</v>
+        <v>6995</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20230</v>
+        <v>19967</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02570280219831184</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01428982604173749</v>
+        <v>0.01485846883833067</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0429750707632383</v>
+        <v>0.04241518331920714</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -4672,19 +4672,19 @@
         <v>3068</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1129</v>
+        <v>1274</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6897</v>
+        <v>7596</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01636234886966042</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006020763825346553</v>
+        <v>0.006795319086183598</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03678702914721727</v>
+        <v>0.04051202168335578</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>19</v>
@@ -4693,19 +4693,19 @@
         <v>15167</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9147</v>
+        <v>9466</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23036</v>
+        <v>24818</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0230422107336227</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01389590273414056</v>
+        <v>0.01438091654454683</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03499560037450264</v>
+        <v>0.03770396988320142</v>
       </c>
     </row>
     <row r="11">
@@ -4722,19 +4722,19 @@
         <v>458644</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>450513</v>
+        <v>450776</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>464016</v>
+        <v>463748</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9742971978016882</v>
+        <v>0.974297197801688</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9570249292367621</v>
+        <v>0.957584816680793</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.985710173958263</v>
+        <v>0.9851415311616695</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>284</v>
@@ -4743,19 +4743,19 @@
         <v>184429</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>180600</v>
+        <v>179901</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>186368</v>
+        <v>186223</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9836376511303396</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9632129708527825</v>
+        <v>0.9594879783166441</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9939792361746533</v>
+        <v>0.9932046809138164</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>757</v>
@@ -4764,19 +4764,19 @@
         <v>643074</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>635205</v>
+        <v>633423</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>649094</v>
+        <v>648775</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9769577892663772</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9650043996254972</v>
+        <v>0.9622960301167987</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9861040972658595</v>
+        <v>0.9856190834554531</v>
       </c>
     </row>
     <row r="12">
@@ -4868,19 +4868,19 @@
         <v>12372</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7402</v>
+        <v>7581</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19481</v>
+        <v>19942</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01093939318740414</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006545542493640845</v>
+        <v>0.006703219594288576</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01722568866373888</v>
+        <v>0.01763368262301191</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -4889,19 +4889,19 @@
         <v>5672</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2983</v>
+        <v>3006</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9684</v>
+        <v>10057</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.006586523283798522</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003463407868663388</v>
+        <v>0.003490490666112107</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01124408053150654</v>
+        <v>0.01167743055967617</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>29</v>
@@ -4910,19 +4910,19 @@
         <v>18044</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11604</v>
+        <v>11977</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>25085</v>
+        <v>25663</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.009057615610690102</v>
+        <v>0.009057615610690104</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.00582507849068092</v>
+        <v>0.006012244835790399</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01259200795173392</v>
+        <v>0.01288202493968192</v>
       </c>
     </row>
     <row r="14">
@@ -4939,19 +4939,19 @@
         <v>1118544</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1111435</v>
+        <v>1110974</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1123514</v>
+        <v>1123335</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9890606068125958</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9827743113362608</v>
+        <v>0.9823663173769875</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9934544575063587</v>
+        <v>0.9932967804057115</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1219</v>
@@ -4960,19 +4960,19 @@
         <v>855539</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>851527</v>
+        <v>851154</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>858228</v>
+        <v>858205</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9934134767162015</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9887559194684936</v>
+        <v>0.9883225694403243</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9965365921313366</v>
+        <v>0.9965095093338879</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2318</v>
@@ -4981,19 +4981,19 @@
         <v>1974084</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1967043</v>
+        <v>1966465</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1980524</v>
+        <v>1980151</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9909423843893097</v>
+        <v>0.9909423843893101</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9874079920482658</v>
+        <v>0.9871179750603178</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9941749215093189</v>
+        <v>0.9939877551642095</v>
       </c>
     </row>
     <row r="15">
@@ -5085,19 +5085,19 @@
         <v>6148</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2994</v>
+        <v>2983</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12521</v>
+        <v>12272</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01084297305353507</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005281361007756614</v>
+        <v>0.005261525563305213</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02208315899877582</v>
+        <v>0.02164542154297639</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>20</v>
@@ -5106,19 +5106,19 @@
         <v>9999</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5783</v>
+        <v>6301</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14786</v>
+        <v>15486</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01206574542378173</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006978388121102842</v>
+        <v>0.007603115005498364</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01784102904890603</v>
+        <v>0.01868616352507086</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>30</v>
@@ -5127,19 +5127,19 @@
         <v>16147</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11183</v>
+        <v>11476</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>23737</v>
+        <v>24122</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01156902694141845</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008012063356152847</v>
+        <v>0.008222470369197125</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01700681779878502</v>
+        <v>0.01728297734205601</v>
       </c>
     </row>
     <row r="17">
@@ -5156,19 +5156,19 @@
         <v>560828</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>554455</v>
+        <v>554704</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>563982</v>
+        <v>563993</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.989157026946465</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9779168410012243</v>
+        <v>0.978354578457024</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9947186389922434</v>
+        <v>0.9947384744366949</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1267</v>
@@ -5177,19 +5177,19 @@
         <v>818751</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>813964</v>
+        <v>813264</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>822967</v>
+        <v>822449</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9879342545762182</v>
+        <v>0.9879342545762181</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9821589709510939</v>
+        <v>0.9813138364749295</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9930216118788971</v>
+        <v>0.992396884994502</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1803</v>
@@ -5198,19 +5198,19 @@
         <v>1379579</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1371989</v>
+        <v>1371604</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1384543</v>
+        <v>1384250</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9884309730585817</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9829931822012149</v>
+        <v>0.9827170226579444</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9919879366438473</v>
+        <v>0.9917775296308031</v>
       </c>
     </row>
     <row r="18">
@@ -5305,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>3695</v>
+        <v>3594</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.002995686398072966</v>
@@ -5314,7 +5314,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01557651725778758</v>
+        <v>0.01515143585122269</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>20</v>
@@ -5323,19 +5323,19 @@
         <v>13590</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>8740</v>
+        <v>8131</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>21799</v>
+        <v>21617</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.01610999459826495</v>
+        <v>0.01610999459826496</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01036028895700624</v>
+        <v>0.009638551605882744</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0258409413764666</v>
+        <v>0.02562529245131669</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>21</v>
@@ -5344,19 +5344,19 @@
         <v>14301</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>8683</v>
+        <v>8872</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>21307</v>
+        <v>22464</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01323156276664689</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.00803358592056312</v>
+        <v>0.008208537740453938</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01971333030191979</v>
+        <v>0.02078405217235621</v>
       </c>
     </row>
     <row r="20">
@@ -5373,16 +5373,16 @@
         <v>236517</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>233533</v>
+        <v>233634</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>237228</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9970043136019271</v>
+        <v>0.997004313601927</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9844234827422124</v>
+        <v>0.9848485641487772</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -5394,19 +5394,19 @@
         <v>830006</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>821797</v>
+        <v>821979</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>834856</v>
+        <v>835465</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.983890005401735</v>
+        <v>0.9838900054017351</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9741590586235328</v>
+        <v>0.9743747075486833</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9896397110429935</v>
+        <v>0.9903614483941172</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1249</v>
@@ -5415,19 +5415,19 @@
         <v>1066523</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1059517</v>
+        <v>1058360</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1072141</v>
+        <v>1071952</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9867684372333529</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9802866696980802</v>
+        <v>0.979215947827644</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9919664140794369</v>
+        <v>0.9917914622595458</v>
       </c>
     </row>
     <row r="21">
@@ -5519,19 +5519,19 @@
         <v>44838</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>34060</v>
+        <v>34281</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>58431</v>
+        <v>58711</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01303899419174068</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.009904629320787475</v>
+        <v>0.009968892948735259</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0169917483218988</v>
+        <v>0.01707322744929021</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>66</v>
@@ -5540,19 +5540,19 @@
         <v>37981</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>29071</v>
+        <v>29236</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>47179</v>
+        <v>49003</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01045751916347682</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.008004290579747523</v>
+        <v>0.008049691806614004</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01298986548184088</v>
+        <v>0.01349229627363869</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>125</v>
@@ -5561,19 +5561,19 @@
         <v>82819</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>68371</v>
+        <v>68617</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>101465</v>
+        <v>99921</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01171299139846602</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.009669533477158576</v>
+        <v>0.009704395470653845</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01434999855534578</v>
+        <v>0.01413157319829513</v>
       </c>
     </row>
     <row r="23">
@@ -5590,19 +5590,19 @@
         <v>3393934</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3380341</v>
+        <v>3380061</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3404712</v>
+        <v>3404491</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9869610058082593</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9830082516781012</v>
+        <v>0.9829267725507097</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9900953706792125</v>
+        <v>0.9900311070512647</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5173</v>
@@ -5611,19 +5611,19 @@
         <v>3593976</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3584778</v>
+        <v>3582954</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3602886</v>
+        <v>3602721</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9895424808365232</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9870101345181591</v>
+        <v>0.9865077037263609</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9919957094202525</v>
+        <v>0.9919503081933859</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>8410</v>
@@ -5632,19 +5632,19 @@
         <v>6987909</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6969263</v>
+        <v>6970807</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>7002357</v>
+        <v>7002111</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.988287008601534</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9856500014446544</v>
+        <v>0.9858684268017055</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9903304665228414</v>
+        <v>0.9902956045293465</v>
       </c>
     </row>
     <row r="24">
